--- a/biology/Zoologie/Allobates_picachos/Allobates_picachos.xlsx
+++ b/biology/Zoologie/Allobates_picachos/Allobates_picachos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allobates picachos est une espèce d'amphibiens de la famille des Aromobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allobates picachos est une espèce d'amphibiens de la famille des Aromobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de San Vicente del Caguán sur la cordillère de Los Picachos dans le département de Caquetá en Colombie[1]. Elle se rencontre vers 1 600 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de San Vicente del Caguán sur la cordillère de Los Picachos dans le département de Caquetá en Colombie. Elle se rencontre vers 1 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ardila-Robayo, Acosta-Galvis, &amp; Coloma, 2000 "1999" : A new species of Colostethus Cope 1867 (Amphibia: Anura: Dendrobatidae) from the Cordillera Oriental of Colombia. Revista de la Academia Colombiana de Ciencias Exactas Fisicas y Naturales, vol. 23, suplemento especial, p. 239-244 (texte intégral).</t>
         </is>
